--- a/计划.xlsx
+++ b/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>2017年9月20日至2018年4月30日</t>
-  </si>
-  <si>
-    <t>这次与其说是职业计划，我觉得更像是学习计划。我用表格的形式写了出来，谢谢载文老大能抽空看看！</t>
   </si>
   <si>
     <t>时间</t>
@@ -126,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -262,22 +259,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +325,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,175 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,142 +661,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -922,12 +919,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1212,16 +1204,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1238,120 +1231,115 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="12"/>
       <c r="B14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="12"/>
       <c r="B15" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="12"/>
       <c r="B16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="12"/>
     </row>
@@ -1362,20 +1350,20 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="15"/>
       <c r="B19" s="17"/>
       <c r="C19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
@@ -1385,17 +1373,17 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="14.25" spans="1:3">
       <c r="A22" s="18"/>
       <c r="B22" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="18"/>
     </row>
@@ -1411,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1428,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>2017年9月20日至2018年4月30日</t>
   </si>
@@ -115,6 +115,39 @@
   </si>
   <si>
     <t>2希望能留在杰理</t>
+  </si>
+  <si>
+    <t>学习内容</t>
+  </si>
+  <si>
+    <t>是否完成</t>
+  </si>
+  <si>
+    <t>未完成原因</t>
+  </si>
+  <si>
+    <t>解决办法</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月</t>
   </si>
 </sst>
 </file>
@@ -122,12 +155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +170,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,60 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,35 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -272,15 +326,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,42 +336,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -343,55 +486,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,121 +568,41 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -556,26 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +673,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -606,6 +693,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,30 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -661,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,198 +760,252 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,7 +1354,7 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1225,11 +1366,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="5" ht="14.25" spans="1:3">
       <c r="A5" t="s">
@@ -1243,149 +1384,149 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" ht="14.25" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="15" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" ht="14.25" spans="1:3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1401,14 +1542,2182 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="47.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10">
+        <v>3</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10">
+        <v>4</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10">
+        <v>6</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10">
+        <v>7</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10">
+        <v>8</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10">
+        <v>10</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9"/>
+      <c r="B45" s="10">
+        <v>11</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10">
+        <v>12</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9"/>
+      <c r="B47" s="10">
+        <v>13</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10">
+        <v>14</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9"/>
+      <c r="B49" s="10">
+        <v>15</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10">
+        <v>16</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9"/>
+      <c r="B51" s="10">
+        <v>17</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10">
+        <v>18</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="9"/>
+      <c r="B53" s="10">
+        <v>19</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10">
+        <v>20</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10">
+        <v>21</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10">
+        <v>22</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="9"/>
+      <c r="B57" s="10">
+        <v>23</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10">
+        <v>24</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10">
+        <v>25</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10">
+        <v>26</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="9"/>
+      <c r="B61" s="10">
+        <v>27</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10">
+        <v>28</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10">
+        <v>29</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10">
+        <v>30</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="14"/>
+      <c r="B68" s="10">
+        <v>2</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10">
+        <v>8</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10">
+        <v>9</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10">
+        <v>10</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10">
+        <v>12</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10">
+        <v>13</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="14"/>
+      <c r="B80" s="10">
+        <v>14</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="14"/>
+      <c r="B81" s="10">
+        <v>15</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="14"/>
+      <c r="B82" s="10">
+        <v>16</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="14"/>
+      <c r="B83" s="10">
+        <v>17</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="14"/>
+      <c r="B84" s="10">
+        <v>18</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="14"/>
+      <c r="B85" s="10">
+        <v>19</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="14"/>
+      <c r="B86" s="10">
+        <v>20</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="14"/>
+      <c r="B87" s="10">
+        <v>21</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="14"/>
+      <c r="B88" s="10">
+        <v>22</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="14"/>
+      <c r="B89" s="10">
+        <v>23</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="14"/>
+      <c r="B90" s="10">
+        <v>24</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="14"/>
+      <c r="B91" s="10">
+        <v>25</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="14"/>
+      <c r="B92" s="10">
+        <v>26</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="14"/>
+      <c r="B93" s="10">
+        <v>27</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="14"/>
+      <c r="B94" s="10">
+        <v>28</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="14"/>
+      <c r="B95" s="10">
+        <v>29</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="14"/>
+      <c r="B96" s="10">
+        <v>30</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="14"/>
+      <c r="B97" s="10">
+        <v>31</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="10">
+        <v>1</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="15"/>
+      <c r="B101" s="10">
+        <v>2</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="15"/>
+      <c r="B102" s="10">
+        <v>3</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="15"/>
+      <c r="B103" s="10">
+        <v>4</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="15"/>
+      <c r="B104" s="10">
+        <v>5</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="15"/>
+      <c r="B105" s="10">
+        <v>6</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="15"/>
+      <c r="B106" s="10">
+        <v>7</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="15"/>
+      <c r="B107" s="10">
+        <v>8</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="15"/>
+      <c r="B108" s="10">
+        <v>9</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="15"/>
+      <c r="B109" s="10">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="15"/>
+      <c r="B110" s="10">
+        <v>11</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="15"/>
+      <c r="B111" s="10">
+        <v>12</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="15"/>
+      <c r="B112" s="10">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="15"/>
+      <c r="B113" s="10">
+        <v>14</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="15"/>
+      <c r="B114" s="10">
+        <v>15</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="15"/>
+      <c r="B115" s="10">
+        <v>16</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="15"/>
+      <c r="B116" s="10">
+        <v>17</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="15"/>
+      <c r="B117" s="10">
+        <v>18</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="15"/>
+      <c r="B118" s="10">
+        <v>19</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="15"/>
+      <c r="B119" s="10">
+        <v>20</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="15"/>
+      <c r="B120" s="10">
+        <v>21</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="15"/>
+      <c r="B121" s="10">
+        <v>22</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="15"/>
+      <c r="B122" s="10">
+        <v>23</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="15"/>
+      <c r="B123" s="10">
+        <v>24</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="15"/>
+      <c r="B124" s="10">
+        <v>25</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="15"/>
+      <c r="B125" s="10">
+        <v>26</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="15"/>
+      <c r="B126" s="10">
+        <v>27</v>
+      </c>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="15"/>
+      <c r="B127" s="10">
+        <v>28</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="15"/>
+      <c r="B128" s="10">
+        <v>29</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="15"/>
+      <c r="B129" s="10">
+        <v>30</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="15"/>
+      <c r="B130" s="10">
+        <v>31</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="10">
+        <v>1</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="16"/>
+      <c r="B134" s="10">
+        <v>2</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="16"/>
+      <c r="B135" s="10">
+        <v>3</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="16"/>
+      <c r="B136" s="10">
+        <v>4</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="16"/>
+      <c r="B137" s="10">
+        <v>5</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="16"/>
+      <c r="B138" s="10">
+        <v>6</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="16"/>
+      <c r="B139" s="10">
+        <v>7</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="16"/>
+      <c r="B140" s="10">
+        <v>8</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="16"/>
+      <c r="B141" s="10">
+        <v>9</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="16"/>
+      <c r="B142" s="10">
+        <v>10</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="16"/>
+      <c r="B143" s="10">
+        <v>11</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="16"/>
+      <c r="B144" s="10">
+        <v>12</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="16"/>
+      <c r="B145" s="10">
+        <v>13</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="16"/>
+      <c r="B146" s="10">
+        <v>14</v>
+      </c>
+      <c r="C146" s="5"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="8"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="16"/>
+      <c r="B147" s="10">
+        <v>15</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="16"/>
+      <c r="B148" s="10">
+        <v>16</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="16"/>
+      <c r="B149" s="10">
+        <v>17</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="16"/>
+      <c r="B150" s="10">
+        <v>18</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="16"/>
+      <c r="B151" s="10">
+        <v>19</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="16"/>
+      <c r="B152" s="10">
+        <v>20</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="16"/>
+      <c r="B153" s="10">
+        <v>21</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="16"/>
+      <c r="B154" s="10">
+        <v>22</v>
+      </c>
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="16"/>
+      <c r="B155" s="10">
+        <v>23</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="16"/>
+      <c r="B156" s="10">
+        <v>24</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="8"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="16"/>
+      <c r="B157" s="10">
+        <v>25</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="16"/>
+      <c r="B158" s="10">
+        <v>26</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="16"/>
+      <c r="B159" s="10">
+        <v>27</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="16"/>
+      <c r="B160" s="10">
+        <v>28</v>
+      </c>
+      <c r="C160" s="5"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="8"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163" s="10">
+        <v>1</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="17"/>
+      <c r="B164" s="10">
+        <v>2</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="17"/>
+      <c r="B165" s="10">
+        <v>3</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="17"/>
+      <c r="B166" s="10">
+        <v>4</v>
+      </c>
+      <c r="C166" s="5"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="17"/>
+      <c r="B167" s="10">
+        <v>5</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="17"/>
+      <c r="B168" s="10">
+        <v>6</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="17"/>
+      <c r="B169" s="10">
+        <v>7</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="17"/>
+      <c r="B170" s="10">
+        <v>8</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="17"/>
+      <c r="B171" s="10">
+        <v>9</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="17"/>
+      <c r="B172" s="10">
+        <v>10</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="17"/>
+      <c r="B173" s="10">
+        <v>11</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="17"/>
+      <c r="B174" s="10">
+        <v>12</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="17"/>
+      <c r="B175" s="10">
+        <v>13</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="17"/>
+      <c r="B176" s="10">
+        <v>14</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="17"/>
+      <c r="B177" s="10">
+        <v>15</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="17"/>
+      <c r="B178" s="10">
+        <v>16</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="17"/>
+      <c r="B179" s="10">
+        <v>17</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="17"/>
+      <c r="B180" s="10">
+        <v>18</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="17"/>
+      <c r="B181" s="10">
+        <v>19</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="17"/>
+      <c r="B182" s="10">
+        <v>20</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="6"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="17"/>
+      <c r="B183" s="10">
+        <v>21</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="6"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="17"/>
+      <c r="B184" s="10">
+        <v>22</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="17"/>
+      <c r="B185" s="10">
+        <v>23</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="6"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="17"/>
+      <c r="B186" s="10">
+        <v>24</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="17"/>
+      <c r="B187" s="10">
+        <v>25</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="17"/>
+      <c r="B188" s="10">
+        <v>26</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="17"/>
+      <c r="B189" s="10">
+        <v>27</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="17"/>
+      <c r="B190" s="10">
+        <v>28</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="6"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="17"/>
+      <c r="B191" s="10">
+        <v>29</v>
+      </c>
+      <c r="C191" s="5"/>
+      <c r="D191" s="6"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="17"/>
+      <c r="B192" s="10">
+        <v>30</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="6"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="17"/>
+      <c r="B193" s="10">
+        <v>31</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" s="10">
+        <v>1</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="18"/>
+      <c r="B197" s="10">
+        <v>2</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="18"/>
+      <c r="B198" s="10">
+        <v>3</v>
+      </c>
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="18"/>
+      <c r="B199" s="10">
+        <v>4</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="18"/>
+      <c r="B200" s="10">
+        <v>5</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="6"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="18"/>
+      <c r="B201" s="10">
+        <v>6</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="18"/>
+      <c r="B202" s="10">
+        <v>7</v>
+      </c>
+      <c r="C202" s="5"/>
+      <c r="D202" s="6"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="18"/>
+      <c r="B203" s="10">
+        <v>8</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="18"/>
+      <c r="B204" s="10">
+        <v>9</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="18"/>
+      <c r="B205" s="10">
+        <v>10</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="6"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="18"/>
+      <c r="B206" s="10">
+        <v>11</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="6"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="8"/>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="18"/>
+      <c r="B207" s="10">
+        <v>12</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="18"/>
+      <c r="B208" s="10">
+        <v>13</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="18"/>
+      <c r="B209" s="10">
+        <v>14</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="7"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="18"/>
+      <c r="B210" s="10">
+        <v>15</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="18"/>
+      <c r="B211" s="10">
+        <v>16</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="18"/>
+      <c r="B212" s="10">
+        <v>17</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="8"/>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="18"/>
+      <c r="B213" s="10">
+        <v>18</v>
+      </c>
+      <c r="C213" s="5"/>
+      <c r="D213" s="6"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="18"/>
+      <c r="B214" s="10">
+        <v>19</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="6"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="18"/>
+      <c r="B215" s="10">
+        <v>20</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="18"/>
+      <c r="B216" s="10">
+        <v>21</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="8"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="18"/>
+      <c r="B217" s="10">
+        <v>22</v>
+      </c>
+      <c r="C217" s="5"/>
+      <c r="D217" s="6"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="18"/>
+      <c r="B218" s="10">
+        <v>23</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="6"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="8"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="18"/>
+      <c r="B219" s="10">
+        <v>24</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="18"/>
+      <c r="B220" s="10">
+        <v>25</v>
+      </c>
+      <c r="C220" s="5"/>
+      <c r="D220" s="6"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="18"/>
+      <c r="B221" s="10">
+        <v>26</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="18"/>
+      <c r="B222" s="10">
+        <v>27</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="18"/>
+      <c r="B223" s="10">
+        <v>28</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="18"/>
+      <c r="B224" s="10">
+        <v>29</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="8"/>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="18"/>
+      <c r="B225" s="10">
+        <v>30</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="A35:A64"/>
+    <mergeCell ref="A67:A97"/>
+    <mergeCell ref="A100:A130"/>
+    <mergeCell ref="A133:A160"/>
+    <mergeCell ref="A163:A193"/>
+    <mergeCell ref="A196:A225"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
